--- a/BackTest/2020-01-11 BackTest GNT.xlsx
+++ b/BackTest/2020-01-11 BackTest GNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1189,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1259,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1329,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1609,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1679,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1714,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1749,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1994,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2029,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2414,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2484,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2519,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2589,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2846,6 +2919,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2889,6 +2963,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2930,6 +3005,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2965,6 +3041,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3000,6 +3077,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3035,6 +3113,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3070,6 +3149,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3105,6 +3185,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3140,6 +3221,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3175,6 +3257,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3210,6 +3293,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3245,6 +3329,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3280,6 +3365,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3319,6 +3405,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3362,6 +3449,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3405,6 +3493,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3448,6 +3537,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3491,6 +3581,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3534,6 +3625,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3575,6 +3667,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3616,6 +3709,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3657,6 +3751,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,6 +3793,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3739,6 +3835,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3780,6 +3877,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3823,6 +3921,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3866,6 +3965,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3909,6 +4009,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3952,6 +4053,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3995,6 +4097,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4036,6 +4139,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4079,6 +4183,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4120,6 +4225,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4161,6 +4267,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4202,6 +4309,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-11 BackTest GNT.xlsx
+++ b/BackTest/2020-01-11 BackTest GNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.08</v>
+        <v>31.21</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>31.3</v>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>31.3</v>
       </c>
       <c r="E2" t="n">
-        <v>32.08</v>
+        <v>31.11</v>
       </c>
       <c r="F2" t="n">
-        <v>44544.25545692308</v>
+        <v>43333</v>
       </c>
       <c r="G2" t="n">
-        <v>133478.1204569231</v>
+        <v>-122891.4359</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>31.3</v>
       </c>
       <c r="C3" t="n">
-        <v>32.8</v>
+        <v>31.3</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>31.3</v>
       </c>
       <c r="E3" t="n">
-        <v>31.81</v>
+        <v>31.3</v>
       </c>
       <c r="F3" t="n">
-        <v>52811.36207307693</v>
+        <v>4500</v>
       </c>
       <c r="G3" t="n">
-        <v>186289.48253</v>
+        <v>-122891.4359</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31.3</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.38</v>
+        <v>31.38</v>
       </c>
       <c r="C4" t="n">
-        <v>32.41</v>
+        <v>31.38</v>
       </c>
       <c r="D4" t="n">
-        <v>33.52</v>
+        <v>31.38</v>
       </c>
       <c r="E4" t="n">
-        <v>32.38</v>
+        <v>31.38</v>
       </c>
       <c r="F4" t="n">
-        <v>286148.3787709612</v>
+        <v>45847</v>
       </c>
       <c r="G4" t="n">
-        <v>-99858.89624096121</v>
+        <v>-77044.43590000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32.5</v>
+        <v>31.2</v>
       </c>
       <c r="C5" t="n">
-        <v>32.38</v>
+        <v>31.21</v>
       </c>
       <c r="D5" t="n">
-        <v>33.09</v>
+        <v>31.21</v>
       </c>
       <c r="E5" t="n">
-        <v>32.38</v>
+        <v>31.2</v>
       </c>
       <c r="F5" t="n">
-        <v>289964.347882472</v>
+        <v>7200</v>
       </c>
       <c r="G5" t="n">
-        <v>-389823.2441234332</v>
+        <v>-84244.43590000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.38</v>
+        <v>31.21</v>
       </c>
       <c r="C6" t="n">
-        <v>32.38</v>
+        <v>31.21</v>
       </c>
       <c r="D6" t="n">
-        <v>32.38</v>
+        <v>31.21</v>
       </c>
       <c r="E6" t="n">
-        <v>32.38</v>
+        <v>31.21</v>
       </c>
       <c r="F6" t="n">
-        <v>48068.655</v>
+        <v>1040</v>
       </c>
       <c r="G6" t="n">
-        <v>-389823.2441234332</v>
+        <v>-84244.43590000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="K6" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.5</v>
+        <v>31.21</v>
       </c>
       <c r="C7" t="n">
-        <v>32.4</v>
+        <v>31.5</v>
       </c>
       <c r="D7" t="n">
-        <v>32.5</v>
+        <v>31.5</v>
       </c>
       <c r="E7" t="n">
-        <v>32.4</v>
+        <v>31.21</v>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>3247.9865</v>
       </c>
       <c r="G7" t="n">
-        <v>-388823.2441234332</v>
+        <v>-80996.44940000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="K7" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +690,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>32.44</v>
+        <v>31.48</v>
       </c>
       <c r="C8" t="n">
-        <v>32.44</v>
+        <v>31.48</v>
       </c>
       <c r="D8" t="n">
-        <v>32.44</v>
+        <v>31.48</v>
       </c>
       <c r="E8" t="n">
-        <v>32.44</v>
+        <v>31.48</v>
       </c>
       <c r="F8" t="n">
-        <v>25668.9235</v>
+        <v>3699.3338</v>
       </c>
       <c r="G8" t="n">
-        <v>-363154.3206234332</v>
+        <v>-84695.78320000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +734,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32.45</v>
+        <v>31.49</v>
       </c>
       <c r="C9" t="n">
-        <v>32.45</v>
+        <v>31.49</v>
       </c>
       <c r="D9" t="n">
-        <v>32.45</v>
+        <v>31.49</v>
       </c>
       <c r="E9" t="n">
-        <v>32.45</v>
+        <v>31.49</v>
       </c>
       <c r="F9" t="n">
-        <v>1999.9999</v>
+        <v>40000</v>
       </c>
       <c r="G9" t="n">
-        <v>-361154.3207234332</v>
+        <v>-44695.78320000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>31.48</v>
+      </c>
+      <c r="K9" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +778,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.45</v>
+        <v>31.3</v>
       </c>
       <c r="C10" t="n">
-        <v>32.45</v>
+        <v>31.3</v>
       </c>
       <c r="D10" t="n">
-        <v>32.45</v>
+        <v>31.3</v>
       </c>
       <c r="E10" t="n">
-        <v>32.45</v>
+        <v>31.3</v>
       </c>
       <c r="F10" t="n">
-        <v>999.9999</v>
+        <v>2632.1244</v>
       </c>
       <c r="G10" t="n">
-        <v>-361154.3207234332</v>
+        <v>-47327.90760000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="K10" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +822,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>32.51</v>
+        <v>31.5</v>
       </c>
       <c r="C11" t="n">
-        <v>32.52</v>
+        <v>31.5</v>
       </c>
       <c r="D11" t="n">
-        <v>32.52</v>
+        <v>31.5</v>
       </c>
       <c r="E11" t="n">
-        <v>32.51</v>
+        <v>31.5</v>
       </c>
       <c r="F11" t="n">
-        <v>18406.3263</v>
+        <v>821</v>
       </c>
       <c r="G11" t="n">
-        <v>-342747.9944234332</v>
+        <v>-46506.90760000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +866,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>32.52</v>
+        <v>31.6</v>
       </c>
       <c r="C12" t="n">
-        <v>33.1</v>
+        <v>31.6</v>
       </c>
       <c r="D12" t="n">
-        <v>33.1</v>
+        <v>31.6</v>
       </c>
       <c r="E12" t="n">
-        <v>32.44</v>
+        <v>31.6</v>
       </c>
       <c r="F12" t="n">
-        <v>1544</v>
+        <v>44500</v>
       </c>
       <c r="G12" t="n">
-        <v>-341203.9944234332</v>
+        <v>-2006.907600000006</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +910,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32.45</v>
+        <v>31.59</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45</v>
+        <v>31.31</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45</v>
+        <v>31.59</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45</v>
+        <v>31.31</v>
       </c>
       <c r="F13" t="n">
-        <v>493.0715</v>
+        <v>39</v>
       </c>
       <c r="G13" t="n">
-        <v>-341697.0659234332</v>
+        <v>-2045.907600000006</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +954,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>32.45</v>
+        <v>32.39</v>
       </c>
       <c r="C14" t="n">
-        <v>32.8</v>
+        <v>31.42</v>
       </c>
       <c r="D14" t="n">
-        <v>32.8</v>
+        <v>32.39</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45</v>
+        <v>31.42</v>
       </c>
       <c r="F14" t="n">
-        <v>3790.5068</v>
+        <v>44</v>
       </c>
       <c r="G14" t="n">
-        <v>-337906.5591234333</v>
+        <v>-2001.907600000006</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="K14" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +998,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>32.8</v>
+        <v>31.5</v>
       </c>
       <c r="C15" t="n">
-        <v>32.8</v>
+        <v>31.5</v>
       </c>
       <c r="D15" t="n">
-        <v>33.1</v>
+        <v>31.5</v>
       </c>
       <c r="E15" t="n">
-        <v>32.6</v>
+        <v>31.5</v>
       </c>
       <c r="F15" t="n">
-        <v>18053.8645</v>
+        <v>4500</v>
       </c>
       <c r="G15" t="n">
-        <v>-337906.5591234333</v>
+        <v>2498.092399999994</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1022,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1040,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7</v>
+        <v>31.5</v>
       </c>
       <c r="C16" t="n">
-        <v>32.6</v>
+        <v>31.5</v>
       </c>
       <c r="D16" t="n">
-        <v>32.7</v>
+        <v>31.5</v>
       </c>
       <c r="E16" t="n">
-        <v>32.6</v>
+        <v>31.5</v>
       </c>
       <c r="F16" t="n">
-        <v>33116.7757</v>
+        <v>1229.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>-371023.3348234333</v>
+        <v>2498.092399999994</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1064,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1082,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>32.52</v>
+        <v>31.5</v>
       </c>
       <c r="C17" t="n">
-        <v>32.5</v>
+        <v>31.69</v>
       </c>
       <c r="D17" t="n">
-        <v>32.52</v>
+        <v>31.7</v>
       </c>
       <c r="E17" t="n">
-        <v>32.5</v>
+        <v>31.5</v>
       </c>
       <c r="F17" t="n">
-        <v>19630.9999</v>
+        <v>42342.1875</v>
       </c>
       <c r="G17" t="n">
-        <v>-390654.3347234332</v>
+        <v>44840.27989999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1106,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1124,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>32.7</v>
+        <v>31.61</v>
       </c>
       <c r="C18" t="n">
-        <v>32.53</v>
+        <v>31.6</v>
       </c>
       <c r="D18" t="n">
-        <v>32.79</v>
+        <v>31.7</v>
       </c>
       <c r="E18" t="n">
-        <v>32.53</v>
+        <v>31.6</v>
       </c>
       <c r="F18" t="n">
-        <v>37937.0361</v>
+        <v>2885.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>-352717.2986234332</v>
+        <v>41954.27999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1148,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1166,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>32.7</v>
+        <v>31.7</v>
       </c>
       <c r="C19" t="n">
-        <v>32.6</v>
+        <v>31.89</v>
       </c>
       <c r="D19" t="n">
-        <v>32.79</v>
+        <v>31.89</v>
       </c>
       <c r="E19" t="n">
-        <v>32.6</v>
+        <v>31.7</v>
       </c>
       <c r="F19" t="n">
-        <v>54439.9725</v>
+        <v>17959.0559</v>
       </c>
       <c r="G19" t="n">
-        <v>-298277.3261234332</v>
+        <v>59913.33589999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1190,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1208,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>32.8</v>
+        <v>31.71</v>
       </c>
       <c r="C20" t="n">
-        <v>32.8</v>
+        <v>31.8</v>
       </c>
       <c r="D20" t="n">
-        <v>32.8</v>
+        <v>31.8</v>
       </c>
       <c r="E20" t="n">
-        <v>32.8</v>
+        <v>31.71</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>1771</v>
       </c>
       <c r="G20" t="n">
-        <v>-298262.3261234332</v>
+        <v>58142.33589999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1232,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1250,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>32.8</v>
+        <v>31.86</v>
       </c>
       <c r="C21" t="n">
-        <v>33.23</v>
+        <v>31.5</v>
       </c>
       <c r="D21" t="n">
-        <v>33.23</v>
+        <v>31.86</v>
       </c>
       <c r="E21" t="n">
-        <v>32.8</v>
+        <v>31.5</v>
       </c>
       <c r="F21" t="n">
-        <v>44358.0473</v>
+        <v>8665.281000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-253904.2788234332</v>
+        <v>49477.05489999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1274,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1292,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>33.13</v>
+        <v>31.7</v>
       </c>
       <c r="C22" t="n">
-        <v>33.13</v>
+        <v>31.7</v>
       </c>
       <c r="D22" t="n">
-        <v>33.22</v>
+        <v>31.7</v>
       </c>
       <c r="E22" t="n">
-        <v>33.13</v>
+        <v>31.7</v>
       </c>
       <c r="F22" t="n">
-        <v>8820.75</v>
+        <v>7185.2461</v>
       </c>
       <c r="G22" t="n">
-        <v>-262725.0288234332</v>
+        <v>56662.30099999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1316,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1334,38 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>33.22</v>
+        <v>31.78</v>
       </c>
       <c r="C23" t="n">
-        <v>33.2</v>
+        <v>31.79</v>
       </c>
       <c r="D23" t="n">
-        <v>33.22</v>
+        <v>31.79</v>
       </c>
       <c r="E23" t="n">
-        <v>33.13</v>
+        <v>31.78</v>
       </c>
       <c r="F23" t="n">
-        <v>206.6593</v>
+        <v>43821.249</v>
       </c>
       <c r="G23" t="n">
-        <v>-262518.3695234332</v>
+        <v>100483.55</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1376,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>33.29</v>
+        <v>31.99</v>
       </c>
       <c r="C24" t="n">
-        <v>33.29</v>
+        <v>31.99</v>
       </c>
       <c r="D24" t="n">
-        <v>33.29</v>
+        <v>31.99</v>
       </c>
       <c r="E24" t="n">
-        <v>33.29</v>
+        <v>31.99</v>
       </c>
       <c r="F24" t="n">
-        <v>16</v>
+        <v>28791.0149</v>
       </c>
       <c r="G24" t="n">
-        <v>-262502.3695234332</v>
+        <v>129274.5649</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1400,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1418,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>33</v>
+        <v>31.97</v>
       </c>
       <c r="C25" t="n">
-        <v>33.1</v>
+        <v>31.97</v>
       </c>
       <c r="D25" t="n">
-        <v>33.1</v>
+        <v>31.97</v>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>31.97</v>
       </c>
       <c r="F25" t="n">
-        <v>9098.6255</v>
+        <v>14735.8575</v>
       </c>
       <c r="G25" t="n">
-        <v>-271600.9950234332</v>
+        <v>114538.7074</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1460,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>33.19</v>
+        <v>31.93</v>
       </c>
       <c r="C26" t="n">
-        <v>33</v>
+        <v>31.93</v>
       </c>
       <c r="D26" t="n">
-        <v>33.4</v>
+        <v>31.93</v>
       </c>
       <c r="E26" t="n">
-        <v>33</v>
+        <v>31.93</v>
       </c>
       <c r="F26" t="n">
-        <v>19756.5852</v>
+        <v>8401.4028</v>
       </c>
       <c r="G26" t="n">
-        <v>-291357.5802234332</v>
+        <v>106137.3046</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1484,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1502,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>33.57</v>
+        <v>31.61</v>
       </c>
       <c r="C27" t="n">
-        <v>33.2</v>
+        <v>31.93</v>
       </c>
       <c r="D27" t="n">
-        <v>33.57</v>
+        <v>31.93</v>
       </c>
       <c r="E27" t="n">
-        <v>33.1</v>
+        <v>31.61</v>
       </c>
       <c r="F27" t="n">
-        <v>7348.5391</v>
+        <v>777.5144</v>
       </c>
       <c r="G27" t="n">
-        <v>-284009.0411234332</v>
+        <v>106137.3046</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1544,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>33.1</v>
+        <v>31.92</v>
       </c>
       <c r="C28" t="n">
-        <v>32.8</v>
+        <v>31.98</v>
       </c>
       <c r="D28" t="n">
-        <v>33.1</v>
+        <v>31.98</v>
       </c>
       <c r="E28" t="n">
-        <v>32.8</v>
+        <v>31.92</v>
       </c>
       <c r="F28" t="n">
-        <v>6896.16</v>
+        <v>15541.5604</v>
       </c>
       <c r="G28" t="n">
-        <v>-290905.2011234332</v>
+        <v>121678.865</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1568,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1586,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>32.8</v>
+        <v>31.72</v>
       </c>
       <c r="C29" t="n">
-        <v>32.7</v>
+        <v>31.72</v>
       </c>
       <c r="D29" t="n">
-        <v>32.8</v>
+        <v>31.72</v>
       </c>
       <c r="E29" t="n">
-        <v>32.51</v>
+        <v>31.72</v>
       </c>
       <c r="F29" t="n">
-        <v>69121.4339</v>
+        <v>513</v>
       </c>
       <c r="G29" t="n">
-        <v>-360026.6350234332</v>
+        <v>121165.865</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1610,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1628,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>32.7</v>
+        <v>31.97</v>
       </c>
       <c r="C30" t="n">
-        <v>32.9</v>
+        <v>31.62</v>
       </c>
       <c r="D30" t="n">
-        <v>32.9</v>
+        <v>31.98</v>
       </c>
       <c r="E30" t="n">
-        <v>32.7</v>
+        <v>31.62</v>
       </c>
       <c r="F30" t="n">
-        <v>18489.1033</v>
+        <v>32232</v>
       </c>
       <c r="G30" t="n">
-        <v>-341537.5317234332</v>
+        <v>88933.86499999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1652,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1670,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>32.8</v>
+        <v>32.08</v>
       </c>
       <c r="C31" t="n">
-        <v>32.84</v>
+        <v>32.5</v>
       </c>
       <c r="D31" t="n">
-        <v>32.84</v>
+        <v>33</v>
       </c>
       <c r="E31" t="n">
-        <v>32.8</v>
+        <v>32.08</v>
       </c>
       <c r="F31" t="n">
-        <v>10000</v>
+        <v>44544.25545692308</v>
       </c>
       <c r="G31" t="n">
-        <v>-351537.5317234332</v>
+        <v>133478.1204569231</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1694,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1712,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="C32" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="D32" t="n">
-        <v>32.6</v>
+        <v>33</v>
       </c>
       <c r="E32" t="n">
-        <v>32.6</v>
+        <v>31.81</v>
       </c>
       <c r="F32" t="n">
-        <v>3822.8859</v>
+        <v>52811.36207307693</v>
       </c>
       <c r="G32" t="n">
-        <v>-355360.4176234332</v>
+        <v>186289.48253</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1736,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1754,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>32.6</v>
+        <v>32.38</v>
       </c>
       <c r="C33" t="n">
-        <v>32.51</v>
+        <v>32.41</v>
       </c>
       <c r="D33" t="n">
-        <v>32.6</v>
+        <v>33.52</v>
       </c>
       <c r="E33" t="n">
-        <v>32.51</v>
+        <v>32.38</v>
       </c>
       <c r="F33" t="n">
-        <v>17724.679</v>
+        <v>286148.3787709612</v>
       </c>
       <c r="G33" t="n">
-        <v>-373085.0966234332</v>
+        <v>-99858.89624096121</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1778,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1796,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>32.51</v>
+        <v>32.5</v>
       </c>
       <c r="C34" t="n">
-        <v>32.51</v>
+        <v>32.38</v>
       </c>
       <c r="D34" t="n">
-        <v>32.51</v>
+        <v>33.09</v>
       </c>
       <c r="E34" t="n">
-        <v>32.51</v>
+        <v>32.38</v>
       </c>
       <c r="F34" t="n">
-        <v>9893.087100000001</v>
+        <v>289964.347882472</v>
       </c>
       <c r="G34" t="n">
-        <v>-373085.0966234332</v>
+        <v>-389823.2441234332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1820,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1838,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>32.51</v>
+        <v>32.38</v>
       </c>
       <c r="C35" t="n">
-        <v>32.51</v>
+        <v>32.38</v>
       </c>
       <c r="D35" t="n">
-        <v>32.51</v>
+        <v>32.38</v>
       </c>
       <c r="E35" t="n">
-        <v>32.51</v>
+        <v>32.38</v>
       </c>
       <c r="F35" t="n">
-        <v>7667.1972</v>
+        <v>48068.655</v>
       </c>
       <c r="G35" t="n">
-        <v>-373085.0966234332</v>
+        <v>-389823.2441234332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1880,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>32.51</v>
+        <v>32.5</v>
       </c>
       <c r="C36" t="n">
-        <v>32.51</v>
+        <v>32.4</v>
       </c>
       <c r="D36" t="n">
-        <v>32.51</v>
+        <v>32.5</v>
       </c>
       <c r="E36" t="n">
-        <v>32.51</v>
+        <v>32.4</v>
       </c>
       <c r="F36" t="n">
-        <v>8406.651599999999</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="n">
-        <v>-373085.0966234332</v>
+        <v>-388823.2441234332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1904,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1922,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>32.51</v>
+        <v>32.44</v>
       </c>
       <c r="C37" t="n">
-        <v>32.51</v>
+        <v>32.44</v>
       </c>
       <c r="D37" t="n">
-        <v>32.51</v>
+        <v>32.44</v>
       </c>
       <c r="E37" t="n">
-        <v>32.51</v>
+        <v>32.44</v>
       </c>
       <c r="F37" t="n">
-        <v>536.071</v>
+        <v>25668.9235</v>
       </c>
       <c r="G37" t="n">
-        <v>-373085.0966234332</v>
+        <v>-363154.3206234332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1964,38 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>32.51</v>
+        <v>32.45</v>
       </c>
       <c r="C38" t="n">
-        <v>32.51</v>
+        <v>32.45</v>
       </c>
       <c r="D38" t="n">
-        <v>32.51</v>
+        <v>32.45</v>
       </c>
       <c r="E38" t="n">
-        <v>32.51</v>
+        <v>32.45</v>
       </c>
       <c r="F38" t="n">
-        <v>1046.5179</v>
+        <v>1999.9999</v>
       </c>
       <c r="G38" t="n">
-        <v>-373085.0966234332</v>
+        <v>-361154.3207234332</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +2006,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>32.51</v>
+        <v>32.45</v>
       </c>
       <c r="C39" t="n">
-        <v>32.51</v>
+        <v>32.45</v>
       </c>
       <c r="D39" t="n">
-        <v>32.51</v>
+        <v>32.45</v>
       </c>
       <c r="E39" t="n">
-        <v>32.51</v>
+        <v>32.45</v>
       </c>
       <c r="F39" t="n">
-        <v>32358.2059</v>
+        <v>999.9999</v>
       </c>
       <c r="G39" t="n">
-        <v>-373085.0966234332</v>
+        <v>-361154.3207234332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2048,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>32.45</v>
+        <v>32.51</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45</v>
+        <v>32.52</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45</v>
+        <v>32.52</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45</v>
+        <v>32.51</v>
       </c>
       <c r="F40" t="n">
-        <v>63.928</v>
+        <v>18406.3263</v>
       </c>
       <c r="G40" t="n">
-        <v>-373149.0246234332</v>
+        <v>-342747.9944234332</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2072,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2090,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>32.44</v>
+        <v>32.52</v>
       </c>
       <c r="C41" t="n">
-        <v>32.44</v>
+        <v>33.1</v>
       </c>
       <c r="D41" t="n">
-        <v>32.44</v>
+        <v>33.1</v>
       </c>
       <c r="E41" t="n">
         <v>32.44</v>
       </c>
       <c r="F41" t="n">
-        <v>11067.7285</v>
+        <v>1544</v>
       </c>
       <c r="G41" t="n">
-        <v>-384216.7531234332</v>
+        <v>-341203.9944234332</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2114,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2132,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>32.5</v>
+        <v>32.45</v>
       </c>
       <c r="C42" t="n">
-        <v>34.2</v>
+        <v>32.45</v>
       </c>
       <c r="D42" t="n">
-        <v>34.2</v>
+        <v>32.45</v>
       </c>
       <c r="E42" t="n">
-        <v>32.5</v>
+        <v>32.45</v>
       </c>
       <c r="F42" t="n">
-        <v>15720.4491</v>
+        <v>493.0715</v>
       </c>
       <c r="G42" t="n">
-        <v>-368496.3040234332</v>
+        <v>-341697.0659234332</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2156,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +2174,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>33.2</v>
+        <v>32.45</v>
       </c>
       <c r="C43" t="n">
-        <v>33.29</v>
+        <v>32.8</v>
       </c>
       <c r="D43" t="n">
-        <v>33.29</v>
+        <v>32.8</v>
       </c>
       <c r="E43" t="n">
-        <v>33.2</v>
+        <v>32.45</v>
       </c>
       <c r="F43" t="n">
-        <v>27108.3088</v>
+        <v>3790.5068</v>
       </c>
       <c r="G43" t="n">
-        <v>-395604.6128234332</v>
+        <v>-337906.5591234333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,32 +2216,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>33.21</v>
+        <v>32.8</v>
       </c>
       <c r="C44" t="n">
-        <v>32.91</v>
+        <v>32.8</v>
       </c>
       <c r="D44" t="n">
-        <v>33.21</v>
+        <v>33.1</v>
       </c>
       <c r="E44" t="n">
-        <v>32.91</v>
+        <v>32.6</v>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>18053.8645</v>
       </c>
       <c r="G44" t="n">
-        <v>-397604.6128234332</v>
+        <v>-337906.5591234333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,32 +2258,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="C45" t="n">
-        <v>32.99</v>
+        <v>32.6</v>
       </c>
       <c r="D45" t="n">
-        <v>32.99</v>
+        <v>32.7</v>
       </c>
       <c r="E45" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="F45" t="n">
-        <v>139.2497</v>
+        <v>33116.7757</v>
       </c>
       <c r="G45" t="n">
-        <v>-397465.3631234332</v>
+        <v>-371023.3348234333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,32 +2300,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>32.8</v>
+        <v>32.52</v>
       </c>
       <c r="C46" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="D46" t="n">
-        <v>32.8</v>
+        <v>32.52</v>
       </c>
       <c r="E46" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="F46" t="n">
-        <v>2503.7627</v>
+        <v>19630.9999</v>
       </c>
       <c r="G46" t="n">
-        <v>-399969.1258234332</v>
+        <v>-390654.3347234332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2061,29 +2345,35 @@
         <v>32.7</v>
       </c>
       <c r="C47" t="n">
-        <v>32.6</v>
+        <v>32.53</v>
       </c>
       <c r="D47" t="n">
-        <v>32.7</v>
+        <v>32.79</v>
       </c>
       <c r="E47" t="n">
-        <v>32.6</v>
+        <v>32.53</v>
       </c>
       <c r="F47" t="n">
-        <v>25530.8356</v>
+        <v>37937.0361</v>
       </c>
       <c r="G47" t="n">
-        <v>-425499.9614234332</v>
+        <v>-352717.2986234332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2384,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="C48" t="n">
         <v>32.6</v>
       </c>
       <c r="D48" t="n">
-        <v>32.6</v>
+        <v>32.79</v>
       </c>
       <c r="E48" t="n">
         <v>32.6</v>
       </c>
       <c r="F48" t="n">
-        <v>3824.3229</v>
+        <v>54439.9725</v>
       </c>
       <c r="G48" t="n">
-        <v>-425499.9614234332</v>
+        <v>-298277.3261234332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2408,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2426,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="C49" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="D49" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="E49" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="F49" t="n">
-        <v>6191.8575</v>
+        <v>15</v>
       </c>
       <c r="G49" t="n">
-        <v>-419308.1039234332</v>
+        <v>-298262.3261234332</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2450,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2468,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>32.5</v>
+        <v>32.8</v>
       </c>
       <c r="C50" t="n">
-        <v>32.5</v>
+        <v>33.23</v>
       </c>
       <c r="D50" t="n">
-        <v>32.5</v>
+        <v>33.23</v>
       </c>
       <c r="E50" t="n">
-        <v>32.5</v>
+        <v>32.8</v>
       </c>
       <c r="F50" t="n">
-        <v>1531.276</v>
+        <v>44358.0473</v>
       </c>
       <c r="G50" t="n">
-        <v>-420839.3799234332</v>
+        <v>-253904.2788234332</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2492,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2510,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>32.5</v>
+        <v>33.13</v>
       </c>
       <c r="C51" t="n">
-        <v>32.7</v>
+        <v>33.13</v>
       </c>
       <c r="D51" t="n">
-        <v>32.7</v>
+        <v>33.22</v>
       </c>
       <c r="E51" t="n">
-        <v>32.5</v>
+        <v>33.13</v>
       </c>
       <c r="F51" t="n">
-        <v>5667.3442</v>
+        <v>8820.75</v>
       </c>
       <c r="G51" t="n">
-        <v>-415172.0357234332</v>
+        <v>-262725.0288234332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2226,8 +2534,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,64 +2552,72 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>32.44</v>
+        <v>33.22</v>
       </c>
       <c r="C52" t="n">
-        <v>31.9</v>
+        <v>33.2</v>
       </c>
       <c r="D52" t="n">
-        <v>32.44</v>
+        <v>33.22</v>
       </c>
       <c r="E52" t="n">
-        <v>31.9</v>
+        <v>33.13</v>
       </c>
       <c r="F52" t="n">
-        <v>85140.8461</v>
+        <v>206.6593</v>
       </c>
       <c r="G52" t="n">
-        <v>-500312.8818234332</v>
+        <v>-262518.3695234332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>1.055702875399361</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.008678881388621</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>32.4</v>
+        <v>33.29</v>
       </c>
       <c r="C53" t="n">
-        <v>32.4</v>
+        <v>33.29</v>
       </c>
       <c r="D53" t="n">
-        <v>32.4</v>
+        <v>33.29</v>
       </c>
       <c r="E53" t="n">
-        <v>32.4</v>
+        <v>33.29</v>
       </c>
       <c r="F53" t="n">
-        <v>2343.3008</v>
+        <v>16</v>
       </c>
       <c r="G53" t="n">
-        <v>-497969.5810234332</v>
+        <v>-262502.3695234332</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2632,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>32.33</v>
+        <v>33</v>
       </c>
       <c r="C54" t="n">
-        <v>32.23</v>
+        <v>33.1</v>
       </c>
       <c r="D54" t="n">
-        <v>32.33</v>
+        <v>33.1</v>
       </c>
       <c r="E54" t="n">
-        <v>32.23</v>
+        <v>33</v>
       </c>
       <c r="F54" t="n">
-        <v>14810.3386</v>
+        <v>9098.6255</v>
       </c>
       <c r="G54" t="n">
-        <v>-512779.9196234332</v>
+        <v>-271600.9950234332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,22 +2668,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>32.12</v>
+        <v>33.19</v>
       </c>
       <c r="C55" t="n">
-        <v>32.12</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
-        <v>32.12</v>
+        <v>33.4</v>
       </c>
       <c r="E55" t="n">
-        <v>32.12</v>
+        <v>33</v>
       </c>
       <c r="F55" t="n">
-        <v>1742.5827</v>
+        <v>19756.5852</v>
       </c>
       <c r="G55" t="n">
-        <v>-514522.5023234332</v>
+        <v>-291357.5802234332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,28 +2704,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>32.3</v>
+        <v>33.57</v>
       </c>
       <c r="C56" t="n">
-        <v>32.5</v>
+        <v>33.2</v>
       </c>
       <c r="D56" t="n">
-        <v>32.5</v>
+        <v>33.57</v>
       </c>
       <c r="E56" t="n">
-        <v>32.3</v>
+        <v>33.1</v>
       </c>
       <c r="F56" t="n">
-        <v>139.2223</v>
+        <v>7348.5391</v>
       </c>
       <c r="G56" t="n">
-        <v>-514383.2800234332</v>
+        <v>-284009.0411234332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2740,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>32.3</v>
+        <v>33.1</v>
       </c>
       <c r="C57" t="n">
-        <v>32.3</v>
+        <v>32.8</v>
       </c>
       <c r="D57" t="n">
-        <v>32.3</v>
+        <v>33.1</v>
       </c>
       <c r="E57" t="n">
-        <v>32.3</v>
+        <v>32.8</v>
       </c>
       <c r="F57" t="n">
-        <v>2813.9408</v>
+        <v>6896.16</v>
       </c>
       <c r="G57" t="n">
-        <v>-517197.2208234332</v>
+        <v>-290905.2011234332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,22 +2776,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>32.5</v>
+        <v>32.8</v>
       </c>
       <c r="C58" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="D58" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="E58" t="n">
-        <v>32.5</v>
+        <v>32.51</v>
       </c>
       <c r="F58" t="n">
-        <v>16365.6298</v>
+        <v>69121.4339</v>
       </c>
       <c r="G58" t="n">
-        <v>-500831.5910234332</v>
+        <v>-360026.6350234332</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2812,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>32.42</v>
+        <v>32.7</v>
       </c>
       <c r="C59" t="n">
-        <v>32.32</v>
+        <v>32.9</v>
       </c>
       <c r="D59" t="n">
-        <v>32.42</v>
+        <v>32.9</v>
       </c>
       <c r="E59" t="n">
-        <v>32.32</v>
+        <v>32.7</v>
       </c>
       <c r="F59" t="n">
-        <v>60000</v>
+        <v>18489.1033</v>
       </c>
       <c r="G59" t="n">
-        <v>-560831.5910234333</v>
+        <v>-341537.5317234332</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2848,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>32.4</v>
+        <v>32.8</v>
       </c>
       <c r="C60" t="n">
-        <v>32.4</v>
+        <v>32.84</v>
       </c>
       <c r="D60" t="n">
-        <v>32.4</v>
+        <v>32.84</v>
       </c>
       <c r="E60" t="n">
-        <v>32.4</v>
+        <v>32.8</v>
       </c>
       <c r="F60" t="n">
-        <v>1350</v>
+        <v>10000</v>
       </c>
       <c r="G60" t="n">
-        <v>-559481.5910234333</v>
+        <v>-351537.5317234332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2884,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="C61" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="D61" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="E61" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="F61" t="n">
-        <v>7886.323</v>
+        <v>3822.8859</v>
       </c>
       <c r="G61" t="n">
-        <v>-559481.5910234333</v>
+        <v>-355360.4176234332</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2920,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>32.32</v>
+        <v>32.6</v>
       </c>
       <c r="C62" t="n">
-        <v>32.32</v>
+        <v>32.51</v>
       </c>
       <c r="D62" t="n">
-        <v>32.32</v>
+        <v>32.6</v>
       </c>
       <c r="E62" t="n">
-        <v>32.32</v>
+        <v>32.51</v>
       </c>
       <c r="F62" t="n">
-        <v>325.093</v>
+        <v>17724.679</v>
       </c>
       <c r="G62" t="n">
-        <v>-559806.6840234332</v>
+        <v>-373085.0966234332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,28 +2956,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>32.3</v>
+        <v>32.51</v>
       </c>
       <c r="C63" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="D63" t="n">
-        <v>32.3</v>
+        <v>32.51</v>
       </c>
       <c r="E63" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="F63" t="n">
-        <v>35463.8296</v>
+        <v>9893.087100000001</v>
       </c>
       <c r="G63" t="n">
-        <v>-595270.5136234332</v>
+        <v>-373085.0966234332</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2670,28 +2992,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="C64" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="D64" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="E64" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="F64" t="n">
-        <v>1494.61</v>
+        <v>7667.1972</v>
       </c>
       <c r="G64" t="n">
-        <v>-595270.5136234332</v>
+        <v>-373085.0966234332</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2706,22 +3028,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="C65" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="D65" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="E65" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="F65" t="n">
-        <v>1000</v>
+        <v>8406.651599999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-595270.5136234332</v>
+        <v>-373085.0966234332</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,28 +3064,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="C66" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="D66" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="E66" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="F66" t="n">
-        <v>2801.6101</v>
+        <v>536.071</v>
       </c>
       <c r="G66" t="n">
-        <v>-595270.5136234332</v>
+        <v>-373085.0966234332</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,28 +3100,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="C67" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="D67" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="E67" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0001</v>
+        <v>1046.5179</v>
       </c>
       <c r="G67" t="n">
-        <v>-595270.5136234332</v>
+        <v>-373085.0966234332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2814,28 +3136,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="C68" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="D68" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="E68" t="n">
-        <v>32.2</v>
+        <v>32.51</v>
       </c>
       <c r="F68" t="n">
-        <v>4500</v>
+        <v>32358.2059</v>
       </c>
       <c r="G68" t="n">
-        <v>-595270.5136234332</v>
+        <v>-373085.0966234332</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2850,28 +3172,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>32.2</v>
+        <v>32.45</v>
       </c>
       <c r="C69" t="n">
-        <v>32.2</v>
+        <v>32.45</v>
       </c>
       <c r="D69" t="n">
-        <v>32.2</v>
+        <v>32.45</v>
       </c>
       <c r="E69" t="n">
-        <v>32.2</v>
+        <v>32.45</v>
       </c>
       <c r="F69" t="n">
-        <v>2685.2461</v>
+        <v>63.928</v>
       </c>
       <c r="G69" t="n">
-        <v>-595270.5136234332</v>
+        <v>-373149.0246234332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2886,35 +3208,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>32.5</v>
+        <v>32.44</v>
       </c>
       <c r="C70" t="n">
-        <v>32.5</v>
+        <v>32.44</v>
       </c>
       <c r="D70" t="n">
-        <v>32.5</v>
+        <v>32.44</v>
       </c>
       <c r="E70" t="n">
-        <v>32.5</v>
+        <v>32.44</v>
       </c>
       <c r="F70" t="n">
-        <v>573.4773</v>
+        <v>11067.7285</v>
       </c>
       <c r="G70" t="n">
-        <v>-594697.0363234332</v>
+        <v>-384216.7531234332</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="K70" t="n">
-        <v>32.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
@@ -2929,37 +3247,29 @@
         <v>32.5</v>
       </c>
       <c r="C71" t="n">
-        <v>32.5</v>
+        <v>34.2</v>
       </c>
       <c r="D71" t="n">
-        <v>32.5</v>
+        <v>34.2</v>
       </c>
       <c r="E71" t="n">
         <v>32.5</v>
       </c>
       <c r="F71" t="n">
-        <v>3000</v>
+        <v>15720.4491</v>
       </c>
       <c r="G71" t="n">
-        <v>-594697.0363234332</v>
+        <v>-368496.3040234332</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="K71" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2970,38 +3280,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>32.6</v>
+        <v>33.2</v>
       </c>
       <c r="C72" t="n">
-        <v>32.6</v>
+        <v>33.29</v>
       </c>
       <c r="D72" t="n">
-        <v>32.6</v>
+        <v>33.29</v>
       </c>
       <c r="E72" t="n">
-        <v>32.6</v>
+        <v>33.2</v>
       </c>
       <c r="F72" t="n">
-        <v>502.104</v>
+        <v>27108.3088</v>
       </c>
       <c r="G72" t="n">
-        <v>-594194.9323234331</v>
+        <v>-395604.6128234332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3012,28 +3316,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>32.6</v>
+        <v>33.21</v>
       </c>
       <c r="C73" t="n">
-        <v>32.6</v>
+        <v>32.91</v>
       </c>
       <c r="D73" t="n">
-        <v>32.6</v>
+        <v>33.21</v>
       </c>
       <c r="E73" t="n">
-        <v>32.6</v>
+        <v>32.91</v>
       </c>
       <c r="F73" t="n">
-        <v>74.19199999999999</v>
+        <v>2000</v>
       </c>
       <c r="G73" t="n">
-        <v>-594194.9323234331</v>
+        <v>-397604.6128234332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3048,28 +3352,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="C74" t="n">
-        <v>32.6</v>
+        <v>32.99</v>
       </c>
       <c r="D74" t="n">
-        <v>32.6</v>
+        <v>32.99</v>
       </c>
       <c r="E74" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="F74" t="n">
-        <v>91</v>
+        <v>139.2497</v>
       </c>
       <c r="G74" t="n">
-        <v>-594194.9323234331</v>
+        <v>-397465.3631234332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3084,22 +3388,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="C75" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="D75" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="E75" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="F75" t="n">
-        <v>2416.5322</v>
+        <v>2503.7627</v>
       </c>
       <c r="G75" t="n">
-        <v>-594194.9323234331</v>
+        <v>-399969.1258234332</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3120,22 +3424,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>32.4</v>
+        <v>32.7</v>
       </c>
       <c r="C76" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="D76" t="n">
-        <v>32.4</v>
+        <v>32.7</v>
       </c>
       <c r="E76" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="F76" t="n">
-        <v>92.5926</v>
+        <v>25530.8356</v>
       </c>
       <c r="G76" t="n">
-        <v>-594287.5249234331</v>
+        <v>-425499.9614234332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3156,22 +3460,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>32.3</v>
+        <v>32.6</v>
       </c>
       <c r="C77" t="n">
-        <v>32.3</v>
+        <v>32.6</v>
       </c>
       <c r="D77" t="n">
-        <v>32.3</v>
+        <v>32.6</v>
       </c>
       <c r="E77" t="n">
-        <v>32.3</v>
+        <v>32.6</v>
       </c>
       <c r="F77" t="n">
-        <v>26.0062</v>
+        <v>3824.3229</v>
       </c>
       <c r="G77" t="n">
-        <v>-594313.531123433</v>
+        <v>-425499.9614234332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3192,22 +3496,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>32</v>
+        <v>32.7</v>
       </c>
       <c r="C78" t="n">
-        <v>31.91</v>
+        <v>32.7</v>
       </c>
       <c r="D78" t="n">
-        <v>32</v>
+        <v>32.7</v>
       </c>
       <c r="E78" t="n">
-        <v>31.91</v>
+        <v>32.7</v>
       </c>
       <c r="F78" t="n">
-        <v>36031.4221</v>
+        <v>6191.8575</v>
       </c>
       <c r="G78" t="n">
-        <v>-630344.953223433</v>
+        <v>-419308.1039234332</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3228,22 +3532,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="C79" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="D79" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="E79" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="F79" t="n">
-        <v>1333.4</v>
+        <v>1531.276</v>
       </c>
       <c r="G79" t="n">
-        <v>-629011.553223433</v>
+        <v>-420839.3799234332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3264,22 +3568,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>31.92</v>
+        <v>32.5</v>
       </c>
       <c r="C80" t="n">
-        <v>31.82</v>
+        <v>32.7</v>
       </c>
       <c r="D80" t="n">
-        <v>31.92</v>
+        <v>32.7</v>
       </c>
       <c r="E80" t="n">
-        <v>31.82</v>
+        <v>32.5</v>
       </c>
       <c r="F80" t="n">
-        <v>33050.2251</v>
+        <v>5667.3442</v>
       </c>
       <c r="G80" t="n">
-        <v>-662061.778323433</v>
+        <v>-415172.0357234332</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3300,22 +3604,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>31.7</v>
+        <v>32.44</v>
       </c>
       <c r="C81" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="D81" t="n">
-        <v>32</v>
+        <v>32.44</v>
       </c>
       <c r="E81" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="F81" t="n">
-        <v>9255.438599999999</v>
+        <v>85140.8461</v>
       </c>
       <c r="G81" t="n">
-        <v>-652806.339723433</v>
+        <v>-500312.8818234332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3336,22 +3640,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>31.9</v>
+        <v>32.4</v>
       </c>
       <c r="C82" t="n">
-        <v>31.9</v>
+        <v>32.4</v>
       </c>
       <c r="D82" t="n">
-        <v>31.9</v>
+        <v>32.4</v>
       </c>
       <c r="E82" t="n">
-        <v>31.8</v>
+        <v>32.4</v>
       </c>
       <c r="F82" t="n">
-        <v>9803.438599999999</v>
+        <v>2343.3008</v>
       </c>
       <c r="G82" t="n">
-        <v>-662609.778323433</v>
+        <v>-497969.5810234332</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3372,35 +3676,31 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>31.9</v>
+        <v>32.33</v>
       </c>
       <c r="C83" t="n">
-        <v>31.9</v>
+        <v>32.23</v>
       </c>
       <c r="D83" t="n">
-        <v>31.9</v>
+        <v>32.33</v>
       </c>
       <c r="E83" t="n">
-        <v>31.9</v>
+        <v>32.23</v>
       </c>
       <c r="F83" t="n">
-        <v>44069.6306</v>
+        <v>14810.3386</v>
       </c>
       <c r="G83" t="n">
-        <v>-662609.778323433</v>
+        <v>-512779.9196234332</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K83" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
@@ -3412,40 +3712,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>31.8</v>
+        <v>32.12</v>
       </c>
       <c r="C84" t="n">
-        <v>31.8</v>
+        <v>32.12</v>
       </c>
       <c r="D84" t="n">
-        <v>31.8</v>
+        <v>32.12</v>
       </c>
       <c r="E84" t="n">
-        <v>31.8</v>
+        <v>32.12</v>
       </c>
       <c r="F84" t="n">
-        <v>1068.0606</v>
+        <v>1742.5827</v>
       </c>
       <c r="G84" t="n">
-        <v>-663677.838923433</v>
+        <v>-514522.5023234332</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K84" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3456,40 +3748,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>31.8</v>
+        <v>32.3</v>
       </c>
       <c r="C85" t="n">
-        <v>31.8</v>
+        <v>32.5</v>
       </c>
       <c r="D85" t="n">
-        <v>31.8</v>
+        <v>32.5</v>
       </c>
       <c r="E85" t="n">
-        <v>31.7</v>
+        <v>32.3</v>
       </c>
       <c r="F85" t="n">
-        <v>17309.2828</v>
+        <v>139.2223</v>
       </c>
       <c r="G85" t="n">
-        <v>-663677.838923433</v>
+        <v>-514383.2800234332</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K85" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3500,40 +3784,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>31.8</v>
+        <v>32.3</v>
       </c>
       <c r="C86" t="n">
-        <v>31.8</v>
+        <v>32.3</v>
       </c>
       <c r="D86" t="n">
-        <v>31.8</v>
+        <v>32.3</v>
       </c>
       <c r="E86" t="n">
-        <v>31.8</v>
+        <v>32.3</v>
       </c>
       <c r="F86" t="n">
-        <v>3131.8509</v>
+        <v>2813.9408</v>
       </c>
       <c r="G86" t="n">
-        <v>-663677.838923433</v>
+        <v>-517197.2208234332</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K86" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3544,40 +3820,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>31.8</v>
+        <v>32.5</v>
       </c>
       <c r="C87" t="n">
-        <v>31.8</v>
+        <v>32.6</v>
       </c>
       <c r="D87" t="n">
-        <v>31.8</v>
+        <v>32.6</v>
       </c>
       <c r="E87" t="n">
-        <v>31.8</v>
+        <v>32.5</v>
       </c>
       <c r="F87" t="n">
-        <v>7069</v>
+        <v>16365.6298</v>
       </c>
       <c r="G87" t="n">
-        <v>-663677.838923433</v>
+        <v>-500831.5910234332</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K87" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3588,40 +3856,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>31.8</v>
+        <v>32.42</v>
       </c>
       <c r="C88" t="n">
-        <v>33.97</v>
+        <v>32.32</v>
       </c>
       <c r="D88" t="n">
-        <v>33.98</v>
+        <v>32.42</v>
       </c>
       <c r="E88" t="n">
-        <v>31.79</v>
+        <v>32.32</v>
       </c>
       <c r="F88" t="n">
-        <v>46395.6483</v>
+        <v>60000</v>
       </c>
       <c r="G88" t="n">
-        <v>-617282.190623433</v>
+        <v>-560831.5910234333</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K88" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3632,22 +3892,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>31.9</v>
+        <v>32.4</v>
       </c>
       <c r="C89" t="n">
-        <v>31.8</v>
+        <v>32.4</v>
       </c>
       <c r="D89" t="n">
-        <v>31.9</v>
+        <v>32.4</v>
       </c>
       <c r="E89" t="n">
-        <v>31.8</v>
+        <v>32.4</v>
       </c>
       <c r="F89" t="n">
-        <v>5535.1167</v>
+        <v>1350</v>
       </c>
       <c r="G89" t="n">
-        <v>-622817.307323433</v>
+        <v>-559481.5910234333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3656,14 +3916,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3674,22 +3928,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>31.8</v>
+        <v>32.4</v>
       </c>
       <c r="C90" t="n">
-        <v>31.79</v>
+        <v>32.4</v>
       </c>
       <c r="D90" t="n">
-        <v>32.01</v>
+        <v>32.4</v>
       </c>
       <c r="E90" t="n">
-        <v>31.79</v>
+        <v>32.4</v>
       </c>
       <c r="F90" t="n">
-        <v>66054.4255</v>
+        <v>7886.323</v>
       </c>
       <c r="G90" t="n">
-        <v>-688871.732823433</v>
+        <v>-559481.5910234333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3698,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3716,22 +3964,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>31.9</v>
+        <v>32.32</v>
       </c>
       <c r="C91" t="n">
-        <v>31.8</v>
+        <v>32.32</v>
       </c>
       <c r="D91" t="n">
-        <v>31.9</v>
+        <v>32.32</v>
       </c>
       <c r="E91" t="n">
-        <v>31.77</v>
+        <v>32.32</v>
       </c>
       <c r="F91" t="n">
-        <v>36236.692</v>
+        <v>325.093</v>
       </c>
       <c r="G91" t="n">
-        <v>-652635.040823433</v>
+        <v>-559806.6840234332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3740,14 +3988,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +4000,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>31.78</v>
+        <v>32.3</v>
       </c>
       <c r="C92" t="n">
-        <v>31.79</v>
+        <v>32.2</v>
       </c>
       <c r="D92" t="n">
-        <v>31.79</v>
+        <v>32.3</v>
       </c>
       <c r="E92" t="n">
-        <v>31.78</v>
+        <v>32.2</v>
       </c>
       <c r="F92" t="n">
-        <v>16838.5847</v>
+        <v>35463.8296</v>
       </c>
       <c r="G92" t="n">
-        <v>-669473.625523433</v>
+        <v>-595270.5136234332</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3782,14 +4024,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3800,22 +4036,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="C93" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="D93" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="E93" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="F93" t="n">
-        <v>3722.5816</v>
+        <v>1494.61</v>
       </c>
       <c r="G93" t="n">
-        <v>-665751.0439234329</v>
+        <v>-595270.5136234332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3824,14 +4060,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3842,22 +4072,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="C94" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="D94" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="E94" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="F94" t="n">
-        <v>1484.7214</v>
+        <v>1000</v>
       </c>
       <c r="G94" t="n">
-        <v>-665751.0439234329</v>
+        <v>-595270.5136234332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3866,14 +4096,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3884,40 +4108,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>31.79</v>
+        <v>32.2</v>
       </c>
       <c r="C95" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="D95" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="E95" t="n">
-        <v>31.79</v>
+        <v>32.2</v>
       </c>
       <c r="F95" t="n">
-        <v>1661</v>
+        <v>2801.6101</v>
       </c>
       <c r="G95" t="n">
-        <v>-665751.0439234329</v>
+        <v>-595270.5136234332</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K95" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3928,40 +4144,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>31.79</v>
+        <v>32.2</v>
       </c>
       <c r="C96" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="D96" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="E96" t="n">
-        <v>31.79</v>
+        <v>32.2</v>
       </c>
       <c r="F96" t="n">
-        <v>8669</v>
+        <v>0.0001</v>
       </c>
       <c r="G96" t="n">
-        <v>-665751.0439234329</v>
+        <v>-595270.5136234332</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K96" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3972,40 +4180,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>31.79</v>
+        <v>32.2</v>
       </c>
       <c r="C97" t="n">
-        <v>31.79</v>
+        <v>32.2</v>
       </c>
       <c r="D97" t="n">
-        <v>31.79</v>
+        <v>32.2</v>
       </c>
       <c r="E97" t="n">
-        <v>31.79</v>
+        <v>32.2</v>
       </c>
       <c r="F97" t="n">
-        <v>1375</v>
+        <v>4500</v>
       </c>
       <c r="G97" t="n">
-        <v>-667126.0439234329</v>
+        <v>-595270.5136234332</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K97" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4016,40 +4216,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>31.7</v>
+        <v>32.2</v>
       </c>
       <c r="C98" t="n">
-        <v>31.61</v>
+        <v>32.2</v>
       </c>
       <c r="D98" t="n">
-        <v>31.7</v>
+        <v>32.2</v>
       </c>
       <c r="E98" t="n">
-        <v>31.61</v>
+        <v>32.2</v>
       </c>
       <c r="F98" t="n">
-        <v>21767.8577</v>
+        <v>2685.2461</v>
       </c>
       <c r="G98" t="n">
-        <v>-688893.901623433</v>
+        <v>-595270.5136234332</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="K98" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4060,40 +4252,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>31.67</v>
+        <v>32.5</v>
       </c>
       <c r="C99" t="n">
-        <v>31.67</v>
+        <v>32.5</v>
       </c>
       <c r="D99" t="n">
-        <v>31.67</v>
+        <v>32.5</v>
       </c>
       <c r="E99" t="n">
-        <v>31.67</v>
+        <v>32.5</v>
       </c>
       <c r="F99" t="n">
-        <v>2386.7435</v>
+        <v>573.4773</v>
       </c>
       <c r="G99" t="n">
-        <v>-686507.158123433</v>
+        <v>-594697.0363234332</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="K99" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4104,22 +4288,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>31.67</v>
+        <v>32.5</v>
       </c>
       <c r="C100" t="n">
-        <v>31.77</v>
+        <v>32.5</v>
       </c>
       <c r="D100" t="n">
-        <v>31.77</v>
+        <v>32.5</v>
       </c>
       <c r="E100" t="n">
-        <v>31.67</v>
+        <v>32.5</v>
       </c>
       <c r="F100" t="n">
-        <v>53200</v>
+        <v>3000</v>
       </c>
       <c r="G100" t="n">
-        <v>-633307.158123433</v>
+        <v>-594697.0363234332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4128,14 +4312,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4146,40 +4324,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>31.77</v>
+        <v>32.6</v>
       </c>
       <c r="C101" t="n">
-        <v>31.77</v>
+        <v>32.6</v>
       </c>
       <c r="D101" t="n">
-        <v>31.77</v>
+        <v>32.6</v>
       </c>
       <c r="E101" t="n">
-        <v>31.77</v>
+        <v>32.6</v>
       </c>
       <c r="F101" t="n">
-        <v>100</v>
+        <v>502.104</v>
       </c>
       <c r="G101" t="n">
-        <v>-633307.158123433</v>
+        <v>-594194.9323234331</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>31.77</v>
-      </c>
-      <c r="K101" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4190,22 +4360,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>31.75</v>
+        <v>32.6</v>
       </c>
       <c r="C102" t="n">
-        <v>31.75</v>
+        <v>32.6</v>
       </c>
       <c r="D102" t="n">
-        <v>31.75</v>
+        <v>32.6</v>
       </c>
       <c r="E102" t="n">
-        <v>31.75</v>
+        <v>32.6</v>
       </c>
       <c r="F102" t="n">
-        <v>7800</v>
+        <v>74.19199999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>-641107.158123433</v>
+        <v>-594194.9323234331</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4214,14 +4384,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4232,22 +4396,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>31.75</v>
+        <v>32.6</v>
       </c>
       <c r="C103" t="n">
-        <v>31.75</v>
+        <v>32.6</v>
       </c>
       <c r="D103" t="n">
-        <v>31.75</v>
+        <v>32.6</v>
       </c>
       <c r="E103" t="n">
-        <v>31.75</v>
+        <v>32.6</v>
       </c>
       <c r="F103" t="n">
-        <v>4080.224</v>
+        <v>91</v>
       </c>
       <c r="G103" t="n">
-        <v>-641107.158123433</v>
+        <v>-594194.9323234331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4256,14 +4420,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4274,42 +4432,1080 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C104" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2416.5322</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-594194.9323234331</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C105" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D105" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E105" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>92.5926</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-594287.5249234331</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C106" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E106" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>26.0062</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-594313.531123433</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>32</v>
+      </c>
+      <c r="C107" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="D107" t="n">
+        <v>32</v>
+      </c>
+      <c r="E107" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="F107" t="n">
+        <v>36031.4221</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-630344.953223433</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>32</v>
+      </c>
+      <c r="C108" t="n">
+        <v>32</v>
+      </c>
+      <c r="D108" t="n">
+        <v>32</v>
+      </c>
+      <c r="E108" t="n">
+        <v>32</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1333.4</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-629011.553223433</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>31.92</v>
+      </c>
+      <c r="C109" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="D109" t="n">
+        <v>31.92</v>
+      </c>
+      <c r="E109" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="F109" t="n">
+        <v>33050.2251</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-662061.778323433</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C110" t="n">
+        <v>32</v>
+      </c>
+      <c r="D110" t="n">
+        <v>32</v>
+      </c>
+      <c r="E110" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F110" t="n">
+        <v>9255.438599999999</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-652806.339723433</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="C111" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="D111" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E111" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>9803.438599999999</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-662609.778323433</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="C112" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>44069.6306</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-662609.778323433</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C113" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D113" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1068.0606</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-663677.838923433</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>17309.2828</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-663677.838923433</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C115" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D115" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E115" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3131.8509</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-663677.838923433</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7069</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-663677.838923433</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C117" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="D117" t="n">
+        <v>33.98</v>
+      </c>
+      <c r="E117" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="F117" t="n">
+        <v>46395.6483</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-617282.190623433</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D118" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E118" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5535.1167</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-622817.307323433</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C119" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="D119" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="E119" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="F119" t="n">
+        <v>66054.4255</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-688871.732823433</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="C120" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D120" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E120" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="F120" t="n">
+        <v>36236.692</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-652635.040823433</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="C121" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="D121" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="E121" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="F121" t="n">
+        <v>16838.5847</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-669473.625523433</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3722.5816</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-665751.0439234329</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C123" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1484.7214</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-665751.0439234329</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="C124" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1661</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-665751.0439234329</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="C125" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="F125" t="n">
+        <v>8669</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-665751.0439234329</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="C126" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="D126" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="E126" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1375</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-667126.0439234329</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C127" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="D127" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="F127" t="n">
+        <v>21767.8577</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-688893.901623433</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="C128" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="D128" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="E128" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2386.7435</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-686507.158123433</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="C129" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="D129" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="E129" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="F129" t="n">
+        <v>53200</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-633307.158123433</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="C130" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="D130" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="E130" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="F130" t="n">
+        <v>100</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-633307.158123433</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>31.75</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C131" t="n">
         <v>31.75</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D131" t="n">
         <v>31.75</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E131" t="n">
         <v>31.75</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F131" t="n">
+        <v>7800</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-641107.158123433</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="C132" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="D132" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="E132" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4080.224</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-641107.158123433</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="C133" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="D133" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="E133" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="F133" t="n">
         <v>8478.9776</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G133" t="n">
         <v>-641107.158123433</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-11 BackTest GNT.xlsx
+++ b/BackTest/2020-01-11 BackTest GNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-122891.4359</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-122891.4359</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="J3" t="n">
         <v>31.3</v>
       </c>
-      <c r="K3" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-77044.43590000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="J4" t="n">
         <v>31.3</v>
       </c>
-      <c r="K4" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-84244.43590000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>31.38</v>
       </c>
       <c r="J5" t="n">
-        <v>31.38</v>
-      </c>
-      <c r="K5" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>31.3</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>-84244.43590000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>31.21</v>
       </c>
       <c r="J6" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>31.3</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>-80996.44940000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>31.21</v>
       </c>
       <c r="J7" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="K7" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>31.3</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>-84695.78320000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="J8" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>31.3</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,23 @@
         <v>-44695.78320000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>31.48</v>
       </c>
       <c r="J9" t="n">
-        <v>31.48</v>
-      </c>
-      <c r="K9" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>31.3</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +767,23 @@
         <v>-47327.90760000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>31.49</v>
       </c>
       <c r="J10" t="n">
-        <v>31.49</v>
-      </c>
-      <c r="K10" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>31.3</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +808,23 @@
         <v>-46506.90760000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="J11" t="n">
         <v>31.3</v>
       </c>
-      <c r="K11" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +849,23 @@
         <v>-2006.907600000006</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="J12" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>31.3</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +890,23 @@
         <v>-2045.907600000006</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="J13" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>31.3</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +931,23 @@
         <v>-2001.907600000006</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>31.31</v>
       </c>
       <c r="J14" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="K14" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>31.3</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,24 +972,23 @@
         <v>2498.092399999994</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>31.42</v>
+      </c>
+      <c r="J15" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1058,24 +1013,23 @@
         <v>2498.092399999994</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>31.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1100,24 +1054,23 @@
         <v>44840.27989999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>31.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1142,24 +1095,23 @@
         <v>41954.27999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>31.69</v>
+      </c>
+      <c r="J18" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1184,24 +1136,23 @@
         <v>59913.33589999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>31.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1226,24 +1177,23 @@
         <v>58142.33589999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>31.89</v>
+      </c>
+      <c r="J20" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1270,22 +1220,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1310,24 +1257,23 @@
         <v>56662.30099999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>31.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1354,22 +1300,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1394,24 +1337,23 @@
         <v>129274.5649</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>31.79</v>
+      </c>
+      <c r="J24" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1438,22 +1380,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1480,22 +1419,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1522,22 +1458,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1564,22 +1497,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1606,22 +1536,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1648,22 +1575,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1690,22 +1614,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1732,22 +1653,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1774,22 +1692,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1816,22 +1731,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1858,22 +1770,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1900,22 +1809,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1942,22 +1848,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1984,22 +1887,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2026,22 +1926,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2068,22 +1965,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2110,22 +2004,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2152,22 +2043,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2194,22 +2082,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2236,22 +2121,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2278,22 +2160,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2320,22 +2199,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2362,22 +2238,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2404,22 +2277,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2446,22 +2316,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2488,22 +2355,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2530,22 +2394,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2572,24 +2433,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1.055702875399361</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1.008678881388621</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2616,16 +2472,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2652,16 +2511,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2688,16 +2550,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2724,16 +2589,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2760,16 +2628,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2794,18 +2665,21 @@
         <v>-360026.6350234332</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.039728434504793</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2830,18 +2704,15 @@
         <v>-341537.5317234332</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2866,18 +2737,15 @@
         <v>-351537.5317234332</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2902,18 +2770,15 @@
         <v>-355360.4176234332</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2938,18 +2803,15 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2976,16 +2838,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3010,18 +2869,15 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3048,16 +2904,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3084,16 +2937,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3120,16 +2970,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3156,16 +3003,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3192,16 +3036,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3228,16 +3069,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3264,16 +3102,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3298,18 +3133,15 @@
         <v>-395604.6128234332</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3334,18 +3166,15 @@
         <v>-397604.6128234332</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3370,18 +3199,15 @@
         <v>-397465.3631234332</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3406,18 +3232,15 @@
         <v>-399969.1258234332</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3442,18 +3265,15 @@
         <v>-425499.9614234332</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3478,18 +3298,15 @@
         <v>-425499.9614234332</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3514,18 +3331,15 @@
         <v>-419308.1039234332</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3552,16 +3366,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3588,16 +3399,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3624,16 +3432,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3660,16 +3465,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3696,16 +3498,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3732,16 +3531,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3768,16 +3564,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3804,16 +3597,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3840,16 +3630,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3876,16 +3663,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3912,16 +3696,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3948,16 +3729,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3984,16 +3762,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4018,18 +3793,15 @@
         <v>-595270.5136234332</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4056,16 +3828,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4092,16 +3861,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4126,18 +3892,15 @@
         <v>-595270.5136234332</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4162,18 +3925,15 @@
         <v>-595270.5136234332</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4200,16 +3960,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4236,16 +3993,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4272,16 +4026,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4306,18 +4057,15 @@
         <v>-594697.0363234332</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4342,18 +4090,15 @@
         <v>-594194.9323234331</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4380,16 +4125,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4416,16 +4158,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4450,18 +4189,15 @@
         <v>-594194.9323234331</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4488,16 +4224,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4524,16 +4257,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4560,16 +4290,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4596,16 +4323,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4632,16 +4356,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4668,16 +4389,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4704,16 +4422,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4740,16 +4455,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4776,16 +4488,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4812,16 +4521,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4848,16 +4554,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4882,18 +4585,15 @@
         <v>-663677.838923433</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4920,16 +4620,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4956,16 +4653,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4992,16 +4686,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5028,16 +4719,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5064,16 +4752,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5100,16 +4785,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5136,16 +4818,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5172,16 +4851,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5208,16 +4884,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5244,16 +4917,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5280,16 +4950,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5316,16 +4983,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5352,16 +5016,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5388,16 +5049,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5424,16 +5082,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5460,16 +5115,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5496,18 +5148,15 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest GNT.xlsx
+++ b/BackTest/2020-01-11 BackTest GNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-122891.4359</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-122891.4359</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>31.3</v>
@@ -521,7 +521,7 @@
         <v>-77044.43590000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>31.3</v>
@@ -562,7 +562,7 @@
         <v>-84244.43590000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>31.38</v>
@@ -603,7 +603,7 @@
         <v>-84244.43590000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>31.21</v>
@@ -644,7 +644,7 @@
         <v>-80996.44940000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>31.21</v>
@@ -685,7 +685,7 @@
         <v>-84695.78320000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>31.5</v>
@@ -726,7 +726,7 @@
         <v>-44695.78320000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>31.48</v>
@@ -767,7 +767,7 @@
         <v>-47327.90760000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>31.49</v>
@@ -808,7 +808,7 @@
         <v>-46506.90760000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>31.3</v>
@@ -849,7 +849,7 @@
         <v>-2006.907600000006</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>31.5</v>
@@ -890,7 +890,7 @@
         <v>-2045.907600000006</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>31.6</v>
@@ -931,7 +931,7 @@
         <v>-2001.907600000006</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>31.31</v>
@@ -972,11 +972,9 @@
         <v>2498.092399999994</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>31.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>31.3</v>
       </c>
@@ -1013,11 +1011,9 @@
         <v>2498.092399999994</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>31.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>31.3</v>
       </c>
@@ -1054,11 +1050,9 @@
         <v>44840.27989999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>31.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>31.3</v>
       </c>
@@ -1095,11 +1089,9 @@
         <v>41954.27999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>31.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>31.3</v>
       </c>
@@ -1136,11 +1128,9 @@
         <v>59913.33589999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>31.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>31.3</v>
       </c>
@@ -1177,11 +1167,9 @@
         <v>58142.33589999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>31.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>31.3</v>
       </c>
@@ -1257,11 +1245,9 @@
         <v>56662.30099999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>31.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>31.3</v>
       </c>
@@ -1337,11 +1323,9 @@
         <v>129274.5649</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>31.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>31.3</v>
       </c>
@@ -2587,7 +2571,7 @@
         <v>-284009.0411234332</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
@@ -2595,13 +2579,15 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>1.055702875399361</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.008678881388621</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2626,17 +2612,11 @@
         <v>-290905.2011234332</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2665,19 +2645,13 @@
         <v>-360026.6350234332</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>1.039728434504793</v>
+        <v>1</v>
       </c>
       <c r="M58" t="inlineStr"/>
     </row>
@@ -2704,7 +2678,7 @@
         <v>-341537.5317234332</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2737,7 +2711,7 @@
         <v>-351537.5317234332</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2770,7 +2744,7 @@
         <v>-355360.4176234332</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2803,7 +2777,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2869,7 +2843,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2902,7 +2876,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3034,7 +3008,7 @@
         <v>-373149.0246234332</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3067,7 +3041,7 @@
         <v>-384216.7531234332</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3100,7 +3074,7 @@
         <v>-368496.3040234332</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3133,7 +3107,7 @@
         <v>-395604.6128234332</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3166,7 +3140,7 @@
         <v>-397604.6128234332</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3199,7 +3173,7 @@
         <v>-397465.3631234332</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3232,7 +3206,7 @@
         <v>-399969.1258234332</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3265,7 +3239,7 @@
         <v>-425499.9614234332</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3298,7 +3272,7 @@
         <v>-425499.9614234332</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3331,7 +3305,7 @@
         <v>-419308.1039234332</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3364,7 +3338,7 @@
         <v>-420839.3799234332</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3793,7 +3767,7 @@
         <v>-595270.5136234332</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3892,7 +3866,7 @@
         <v>-595270.5136234332</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3925,7 +3899,7 @@
         <v>-595270.5136234332</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4057,7 +4031,7 @@
         <v>-594697.0363234332</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4090,7 +4064,7 @@
         <v>-594194.9323234331</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4189,7 +4163,7 @@
         <v>-594194.9323234331</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4585,7 +4559,7 @@
         <v>-663677.838923433</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5157,6 +5131,6 @@
       <c r="M133" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest GNT.xlsx
+++ b/BackTest/2020-01-11 BackTest GNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-122891.4359</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-122891.4359</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>31.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-77044.43590000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-84244.43590000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>31.38</v>
-      </c>
-      <c r="J5" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-84244.43590000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="J6" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-80996.44940000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="J7" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>-84695.78320000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>-44695.78320000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>31.48</v>
-      </c>
-      <c r="J9" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>-47327.90760000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>31.49</v>
-      </c>
-      <c r="J10" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>-46506.90760000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>-2006.907600000006</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>-2045.907600000006</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +847,11 @@
         <v>-2001.907600000006</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="J14" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -975,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1014,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1053,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1092,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1131,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1170,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1209,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1248,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1287,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1326,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1365,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1404,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1443,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1482,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1521,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1560,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1599,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1638,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1677,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1713,17 +1507,11 @@
         <v>-389823.2441234332</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1752,17 +1540,11 @@
         <v>-389823.2441234332</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1794,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1833,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1869,17 +1639,11 @@
         <v>-361154.3207234332</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1911,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1950,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1986,17 +1738,11 @@
         <v>-341203.9944234332</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2025,17 +1771,11 @@
         <v>-341697.0659234332</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2064,17 +1804,11 @@
         <v>-337906.5591234333</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2106,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2142,17 +1870,11 @@
         <v>-371023.3348234333</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2181,17 +1903,11 @@
         <v>-390654.3347234332</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2220,17 +1936,11 @@
         <v>-352717.2986234332</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2259,17 +1969,11 @@
         <v>-298277.3261234332</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2301,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2337,17 +2035,11 @@
         <v>-253904.2788234332</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2379,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2418,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2457,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2496,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2535,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2571,23 +2233,15 @@
         <v>-284009.0411234332</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.055702875399361</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.008678881388621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2612,7 +2266,7 @@
         <v>-290905.2011234332</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2645,7 +2299,7 @@
         <v>-360026.6350234332</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2711,7 +2365,7 @@
         <v>-351537.5317234332</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2744,7 +2398,7 @@
         <v>-355360.4176234332</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2777,7 +2431,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2909,7 +2563,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2942,7 +2596,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2975,7 +2629,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3008,7 +2662,7 @@
         <v>-373149.0246234332</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3041,7 +2695,7 @@
         <v>-384216.7531234332</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3074,7 +2728,7 @@
         <v>-368496.3040234332</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3107,7 +2761,7 @@
         <v>-395604.6128234332</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3140,7 +2794,7 @@
         <v>-397604.6128234332</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3173,7 +2827,7 @@
         <v>-397465.3631234332</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3206,7 +2860,7 @@
         <v>-399969.1258234332</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3239,7 +2893,7 @@
         <v>-425499.9614234332</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3305,7 +2959,7 @@
         <v>-419308.1039234332</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3338,7 +2992,7 @@
         <v>-420839.3799234332</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4790,10 +4444,14 @@
         <v>-665751.0439234329</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="J123" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
@@ -4823,11 +4481,19 @@
         <v>-665751.0439234329</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="J124" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4859,8 +4525,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4892,8 +4564,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4925,8 +4603,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4955,11 +4639,19 @@
         <v>-686507.158123433</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="J128" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4991,8 +4683,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5024,8 +4722,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5057,8 +4761,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5090,8 +4800,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5123,14 +4839,20 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
       <c r="M133" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest GNT.xlsx
+++ b/BackTest/2020-01-11 BackTest GNT.xlsx
@@ -451,7 +451,7 @@
         <v>-122891.4359</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-122891.4359</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>31.3</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-77044.43590000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-84244.43590000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-84244.43590000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="J6" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>-80996.44940000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="J7" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>-84695.78320000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>-44695.78320000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>31.48</v>
+      </c>
+      <c r="J9" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>-47327.90760000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="J10" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>-46506.90760000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>-2006.907600000006</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>-2045.907600000006</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>-2001.907600000006</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="J14" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +975,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1014,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1053,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1092,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1131,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1170,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1209,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1248,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1287,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1326,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1365,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1404,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1443,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1482,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1521,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1560,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1599,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1638,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1677,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1713,17 @@
         <v>-389823.2441234332</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1752,17 @@
         <v>-389823.2441234332</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1794,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1833,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1869,17 @@
         <v>-361154.3207234332</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1911,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1950,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1986,17 @@
         <v>-341203.9944234332</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2025,17 @@
         <v>-341697.0659234332</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2064,17 @@
         <v>-337906.5591234333</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2106,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2142,17 @@
         <v>-371023.3348234333</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2181,17 @@
         <v>-390654.3347234332</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2220,17 @@
         <v>-352717.2986234332</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2259,17 @@
         <v>-298277.3261234332</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2301,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2337,17 @@
         <v>-253904.2788234332</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2379,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2418,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2457,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2496,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2535,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2574,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2613,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2652,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2688,17 @@
         <v>-341537.5317234332</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2730,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2769,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2808,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2847,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2886,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2922,17 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2961,17 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +3000,17 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3039,17 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3081,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3120,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3159,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,15 +3195,23 @@
         <v>-395604.6128234332</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>1.058578274760383</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.008678881388621</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2794,7 +3236,7 @@
         <v>-397604.6128234332</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +3269,7 @@
         <v>-397465.3631234332</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +3302,7 @@
         <v>-399969.1258234332</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +3335,7 @@
         <v>-425499.9614234332</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3368,7 @@
         <v>-425499.9614234332</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3401,7 @@
         <v>-419308.1039234332</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -4180,10 +4622,14 @@
         <v>-663677.838923433</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="J115" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
@@ -4213,11 +4659,19 @@
         <v>-663677.838923433</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="J116" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4700,19 @@
         <v>-617282.190623433</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4744,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4783,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4822,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4861,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4897,19 @@
         <v>-665751.0439234329</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="J122" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4452,7 +4946,11 @@
       <c r="J123" t="n">
         <v>31.8</v>
       </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4491,7 +4989,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -4522,9 +5020,11 @@
         <v>-665751.0439234329</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>31.8</v>
+      </c>
       <c r="J125" t="n">
         <v>31.8</v>
       </c>
@@ -4561,9 +5061,11 @@
         <v>-667126.0439234329</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>31.8</v>
+      </c>
       <c r="J126" t="n">
         <v>31.8</v>
       </c>
@@ -4600,9 +5102,11 @@
         <v>-688893.901623433</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>31.79</v>
+      </c>
       <c r="J127" t="n">
         <v>31.8</v>
       </c>
@@ -4680,9 +5184,11 @@
         <v>-633307.158123433</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>31.67</v>
+      </c>
       <c r="J129" t="n">
         <v>31.8</v>
       </c>
@@ -4719,9 +5225,11 @@
         <v>-633307.158123433</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>31.77</v>
+      </c>
       <c r="J130" t="n">
         <v>31.8</v>
       </c>
@@ -4758,9 +5266,11 @@
         <v>-641107.158123433</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>31.77</v>
+      </c>
       <c r="J131" t="n">
         <v>31.8</v>
       </c>
@@ -4797,9 +5307,11 @@
         <v>-641107.158123433</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>31.75</v>
+      </c>
       <c r="J132" t="n">
         <v>31.8</v>
       </c>
@@ -4836,9 +5348,11 @@
         <v>-641107.158123433</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>31.75</v>
+      </c>
       <c r="J133" t="n">
         <v>31.8</v>
       </c>

--- a/BackTest/2020-01-11 BackTest GNT.xlsx
+++ b/BackTest/2020-01-11 BackTest GNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>43333</v>
       </c>
       <c r="G2" t="n">
-        <v>-122891.4359</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>4500</v>
       </c>
       <c r="G3" t="n">
-        <v>-122891.4359</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>31.3</v>
       </c>
       <c r="I3" t="n">
         <v>31.3</v>
       </c>
-      <c r="J3" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>45847</v>
       </c>
       <c r="G4" t="n">
-        <v>-77044.43590000001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>31.3</v>
       </c>
       <c r="I4" t="n">
         <v>31.3</v>
       </c>
-      <c r="J4" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>7200</v>
       </c>
       <c r="G5" t="n">
-        <v>-84244.43590000001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>31.38</v>
       </c>
       <c r="I5" t="n">
-        <v>31.38</v>
-      </c>
-      <c r="J5" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>31.3</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>1040</v>
       </c>
       <c r="G6" t="n">
-        <v>-84244.43590000001</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>31.21</v>
       </c>
       <c r="I6" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="J6" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>31.3</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>3247.9865</v>
       </c>
       <c r="G7" t="n">
-        <v>-80996.44940000001</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>31.21</v>
       </c>
       <c r="I7" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="J7" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>31.3</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +659,23 @@
         <v>3699.3338</v>
       </c>
       <c r="G8" t="n">
-        <v>-84695.78320000001</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>31.5</v>
       </c>
       <c r="I8" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>31.3</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +697,23 @@
         <v>40000</v>
       </c>
       <c r="G9" t="n">
-        <v>-44695.78320000001</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>31.48</v>
       </c>
       <c r="I9" t="n">
-        <v>31.48</v>
-      </c>
-      <c r="J9" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>31.3</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +735,21 @@
         <v>2632.1244</v>
       </c>
       <c r="G10" t="n">
-        <v>-47327.90760000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>31.49</v>
-      </c>
-      <c r="J10" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>31.3</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +771,23 @@
         <v>821</v>
       </c>
       <c r="G11" t="n">
-        <v>-46506.90760000001</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>31.3</v>
       </c>
       <c r="I11" t="n">
         <v>31.3</v>
       </c>
-      <c r="J11" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +809,21 @@
         <v>44500</v>
       </c>
       <c r="G12" t="n">
-        <v>-2006.907600000006</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>31.3</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +845,21 @@
         <v>39</v>
       </c>
       <c r="G13" t="n">
-        <v>-2045.907600000006</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>31.3</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,26 +881,21 @@
         <v>44</v>
       </c>
       <c r="G14" t="n">
-        <v>-2001.907600000006</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="J14" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>31.3</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -969,24 +917,21 @@
         <v>4500</v>
       </c>
       <c r="G15" t="n">
-        <v>2498.092399999994</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1008,24 +953,21 @@
         <v>1229.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>2498.092399999994</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1047,24 +989,21 @@
         <v>42342.1875</v>
       </c>
       <c r="G17" t="n">
-        <v>44840.27989999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1086,24 +1025,21 @@
         <v>2885.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>41954.27999999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1125,24 +1061,21 @@
         <v>17959.0559</v>
       </c>
       <c r="G19" t="n">
-        <v>59913.33589999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1164,24 +1097,21 @@
         <v>1771</v>
       </c>
       <c r="G20" t="n">
-        <v>58142.33589999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1203,24 +1133,21 @@
         <v>8665.281000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>49477.05489999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1242,24 +1169,21 @@
         <v>7185.2461</v>
       </c>
       <c r="G22" t="n">
-        <v>56662.30099999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1281,24 +1205,21 @@
         <v>43821.249</v>
       </c>
       <c r="G23" t="n">
-        <v>100483.55</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1320,24 +1241,21 @@
         <v>28791.0149</v>
       </c>
       <c r="G24" t="n">
-        <v>129274.5649</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1359,24 +1277,21 @@
         <v>14735.8575</v>
       </c>
       <c r="G25" t="n">
-        <v>114538.7074</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1398,24 +1313,21 @@
         <v>8401.4028</v>
       </c>
       <c r="G26" t="n">
-        <v>106137.3046</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1437,24 +1349,21 @@
         <v>777.5144</v>
       </c>
       <c r="G27" t="n">
-        <v>106137.3046</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1476,24 +1385,21 @@
         <v>15541.5604</v>
       </c>
       <c r="G28" t="n">
-        <v>121678.865</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1515,24 +1421,21 @@
         <v>513</v>
       </c>
       <c r="G29" t="n">
-        <v>121165.865</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1554,24 +1457,21 @@
         <v>32232</v>
       </c>
       <c r="G30" t="n">
-        <v>88933.86499999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1593,24 +1493,21 @@
         <v>44544.25545692308</v>
       </c>
       <c r="G31" t="n">
-        <v>133478.1204569231</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1632,24 +1529,21 @@
         <v>52811.36207307693</v>
       </c>
       <c r="G32" t="n">
-        <v>186289.48253</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1671,24 +1565,21 @@
         <v>286148.3787709612</v>
       </c>
       <c r="G33" t="n">
-        <v>-99858.89624096121</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1710,24 +1601,21 @@
         <v>289964.347882472</v>
       </c>
       <c r="G34" t="n">
-        <v>-389823.2441234332</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1749,24 +1637,21 @@
         <v>48068.655</v>
       </c>
       <c r="G35" t="n">
-        <v>-389823.2441234332</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1788,24 +1673,21 @@
         <v>1000</v>
       </c>
       <c r="G36" t="n">
-        <v>-388823.2441234332</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1827,24 +1709,21 @@
         <v>25668.9235</v>
       </c>
       <c r="G37" t="n">
-        <v>-363154.3206234332</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1866,24 +1745,21 @@
         <v>1999.9999</v>
       </c>
       <c r="G38" t="n">
-        <v>-361154.3207234332</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1905,24 +1781,21 @@
         <v>999.9999</v>
       </c>
       <c r="G39" t="n">
-        <v>-361154.3207234332</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1944,24 +1817,21 @@
         <v>18406.3263</v>
       </c>
       <c r="G40" t="n">
-        <v>-342747.9944234332</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1983,24 +1853,21 @@
         <v>1544</v>
       </c>
       <c r="G41" t="n">
-        <v>-341203.9944234332</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2022,24 +1889,21 @@
         <v>493.0715</v>
       </c>
       <c r="G42" t="n">
-        <v>-341697.0659234332</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2061,24 +1925,21 @@
         <v>3790.5068</v>
       </c>
       <c r="G43" t="n">
-        <v>-337906.5591234333</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2100,24 +1961,21 @@
         <v>18053.8645</v>
       </c>
       <c r="G44" t="n">
-        <v>-337906.5591234333</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2139,24 +1997,21 @@
         <v>33116.7757</v>
       </c>
       <c r="G45" t="n">
-        <v>-371023.3348234333</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2178,24 +2033,21 @@
         <v>19630.9999</v>
       </c>
       <c r="G46" t="n">
-        <v>-390654.3347234332</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2217,24 +2069,21 @@
         <v>37937.0361</v>
       </c>
       <c r="G47" t="n">
-        <v>-352717.2986234332</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2256,24 +2105,21 @@
         <v>54439.9725</v>
       </c>
       <c r="G48" t="n">
-        <v>-298277.3261234332</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2295,24 +2141,21 @@
         <v>15</v>
       </c>
       <c r="G49" t="n">
-        <v>-298262.3261234332</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2334,24 +2177,21 @@
         <v>44358.0473</v>
       </c>
       <c r="G50" t="n">
-        <v>-253904.2788234332</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2373,24 +2213,21 @@
         <v>8820.75</v>
       </c>
       <c r="G51" t="n">
-        <v>-262725.0288234332</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2412,24 +2249,21 @@
         <v>206.6593</v>
       </c>
       <c r="G52" t="n">
-        <v>-262518.3695234332</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2451,24 +2285,21 @@
         <v>16</v>
       </c>
       <c r="G53" t="n">
-        <v>-262502.3695234332</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2490,24 +2321,21 @@
         <v>9098.6255</v>
       </c>
       <c r="G54" t="n">
-        <v>-271600.9950234332</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2529,24 +2357,21 @@
         <v>19756.5852</v>
       </c>
       <c r="G55" t="n">
-        <v>-291357.5802234332</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2568,24 +2393,23 @@
         <v>7348.5391</v>
       </c>
       <c r="G56" t="n">
-        <v>-284009.0411234332</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1.055702875399361</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>1.008678881388621</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2607,24 +2431,15 @@
         <v>6896.16</v>
       </c>
       <c r="G57" t="n">
-        <v>-290905.2011234332</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2646,24 +2461,15 @@
         <v>69121.4339</v>
       </c>
       <c r="G58" t="n">
-        <v>-360026.6350234332</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2685,24 +2491,15 @@
         <v>18489.1033</v>
       </c>
       <c r="G59" t="n">
-        <v>-341537.5317234332</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2724,24 +2521,15 @@
         <v>10000</v>
       </c>
       <c r="G60" t="n">
-        <v>-351537.5317234332</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2763,24 +2551,15 @@
         <v>3822.8859</v>
       </c>
       <c r="G61" t="n">
-        <v>-355360.4176234332</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2802,24 +2581,15 @@
         <v>17724.679</v>
       </c>
       <c r="G62" t="n">
-        <v>-373085.0966234332</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2841,24 +2611,15 @@
         <v>9893.087100000001</v>
       </c>
       <c r="G63" t="n">
-        <v>-373085.0966234332</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2880,24 +2641,15 @@
         <v>7667.1972</v>
       </c>
       <c r="G64" t="n">
-        <v>-373085.0966234332</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2919,24 +2671,15 @@
         <v>8406.651599999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-373085.0966234332</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2958,24 +2701,15 @@
         <v>536.071</v>
       </c>
       <c r="G66" t="n">
-        <v>-373085.0966234332</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2997,24 +2731,15 @@
         <v>1046.5179</v>
       </c>
       <c r="G67" t="n">
-        <v>-373085.0966234332</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3036,24 +2761,15 @@
         <v>32358.2059</v>
       </c>
       <c r="G68" t="n">
-        <v>-373085.0966234332</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3075,24 +2791,15 @@
         <v>63.928</v>
       </c>
       <c r="G69" t="n">
-        <v>-373149.0246234332</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3114,24 +2821,15 @@
         <v>11067.7285</v>
       </c>
       <c r="G70" t="n">
-        <v>-384216.7531234332</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3153,24 +2851,15 @@
         <v>15720.4491</v>
       </c>
       <c r="G71" t="n">
-        <v>-368496.3040234332</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3192,26 +2881,15 @@
         <v>27108.3088</v>
       </c>
       <c r="G72" t="n">
-        <v>-395604.6128234332</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1.058578274760383</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.008678881388621</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3233,18 +2911,15 @@
         <v>2000</v>
       </c>
       <c r="G73" t="n">
-        <v>-397604.6128234332</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3266,18 +2941,15 @@
         <v>139.2497</v>
       </c>
       <c r="G74" t="n">
-        <v>-397465.3631234332</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3299,18 +2971,15 @@
         <v>2503.7627</v>
       </c>
       <c r="G75" t="n">
-        <v>-399969.1258234332</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3332,18 +3001,15 @@
         <v>25530.8356</v>
       </c>
       <c r="G76" t="n">
-        <v>-425499.9614234332</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3365,18 +3031,15 @@
         <v>3824.3229</v>
       </c>
       <c r="G77" t="n">
-        <v>-425499.9614234332</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3398,18 +3061,15 @@
         <v>6191.8575</v>
       </c>
       <c r="G78" t="n">
-        <v>-419308.1039234332</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3431,18 +3091,15 @@
         <v>1531.276</v>
       </c>
       <c r="G79" t="n">
-        <v>-420839.3799234332</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3464,18 +3121,15 @@
         <v>5667.3442</v>
       </c>
       <c r="G80" t="n">
-        <v>-415172.0357234332</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3497,18 +3151,15 @@
         <v>85140.8461</v>
       </c>
       <c r="G81" t="n">
-        <v>-500312.8818234332</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3530,18 +3181,15 @@
         <v>2343.3008</v>
       </c>
       <c r="G82" t="n">
-        <v>-497969.5810234332</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3563,18 +3211,15 @@
         <v>14810.3386</v>
       </c>
       <c r="G83" t="n">
-        <v>-512779.9196234332</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3596,18 +3241,15 @@
         <v>1742.5827</v>
       </c>
       <c r="G84" t="n">
-        <v>-514522.5023234332</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3629,18 +3271,15 @@
         <v>139.2223</v>
       </c>
       <c r="G85" t="n">
-        <v>-514383.2800234332</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3662,18 +3301,15 @@
         <v>2813.9408</v>
       </c>
       <c r="G86" t="n">
-        <v>-517197.2208234332</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3695,18 +3331,15 @@
         <v>16365.6298</v>
       </c>
       <c r="G87" t="n">
-        <v>-500831.5910234332</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3728,18 +3361,15 @@
         <v>60000</v>
       </c>
       <c r="G88" t="n">
-        <v>-560831.5910234333</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3761,18 +3391,15 @@
         <v>1350</v>
       </c>
       <c r="G89" t="n">
-        <v>-559481.5910234333</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3794,18 +3421,15 @@
         <v>7886.323</v>
       </c>
       <c r="G90" t="n">
-        <v>-559481.5910234333</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3827,18 +3451,15 @@
         <v>325.093</v>
       </c>
       <c r="G91" t="n">
-        <v>-559806.6840234332</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3860,18 +3481,15 @@
         <v>35463.8296</v>
       </c>
       <c r="G92" t="n">
-        <v>-595270.5136234332</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3893,18 +3511,15 @@
         <v>1494.61</v>
       </c>
       <c r="G93" t="n">
-        <v>-595270.5136234332</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3926,18 +3541,15 @@
         <v>1000</v>
       </c>
       <c r="G94" t="n">
-        <v>-595270.5136234332</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3959,18 +3571,15 @@
         <v>2801.6101</v>
       </c>
       <c r="G95" t="n">
-        <v>-595270.5136234332</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3992,18 +3601,15 @@
         <v>0.0001</v>
       </c>
       <c r="G96" t="n">
-        <v>-595270.5136234332</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4025,18 +3631,15 @@
         <v>4500</v>
       </c>
       <c r="G97" t="n">
-        <v>-595270.5136234332</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4058,18 +3661,15 @@
         <v>2685.2461</v>
       </c>
       <c r="G98" t="n">
-        <v>-595270.5136234332</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4091,18 +3691,15 @@
         <v>573.4773</v>
       </c>
       <c r="G99" t="n">
-        <v>-594697.0363234332</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4124,18 +3721,15 @@
         <v>3000</v>
       </c>
       <c r="G100" t="n">
-        <v>-594697.0363234332</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4157,18 +3751,15 @@
         <v>502.104</v>
       </c>
       <c r="G101" t="n">
-        <v>-594194.9323234331</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4190,18 +3781,15 @@
         <v>74.19199999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>-594194.9323234331</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4223,18 +3811,15 @@
         <v>91</v>
       </c>
       <c r="G103" t="n">
-        <v>-594194.9323234331</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4256,18 +3841,15 @@
         <v>2416.5322</v>
       </c>
       <c r="G104" t="n">
-        <v>-594194.9323234331</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4289,18 +3871,15 @@
         <v>92.5926</v>
       </c>
       <c r="G105" t="n">
-        <v>-594287.5249234331</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4322,18 +3901,15 @@
         <v>26.0062</v>
       </c>
       <c r="G106" t="n">
-        <v>-594313.531123433</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4355,18 +3931,15 @@
         <v>36031.4221</v>
       </c>
       <c r="G107" t="n">
-        <v>-630344.953223433</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4388,18 +3961,15 @@
         <v>1333.4</v>
       </c>
       <c r="G108" t="n">
-        <v>-629011.553223433</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4421,18 +3991,15 @@
         <v>33050.2251</v>
       </c>
       <c r="G109" t="n">
-        <v>-662061.778323433</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4454,18 +4021,15 @@
         <v>9255.438599999999</v>
       </c>
       <c r="G110" t="n">
-        <v>-652806.339723433</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4487,18 +4051,15 @@
         <v>9803.438599999999</v>
       </c>
       <c r="G111" t="n">
-        <v>-662609.778323433</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4520,18 +4081,15 @@
         <v>44069.6306</v>
       </c>
       <c r="G112" t="n">
-        <v>-662609.778323433</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4553,18 +4111,15 @@
         <v>1068.0606</v>
       </c>
       <c r="G113" t="n">
-        <v>-663677.838923433</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4586,18 +4141,15 @@
         <v>17309.2828</v>
       </c>
       <c r="G114" t="n">
-        <v>-663677.838923433</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4619,22 +4171,15 @@
         <v>3131.8509</v>
       </c>
       <c r="G115" t="n">
-        <v>-663677.838923433</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="J115" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4656,26 +4201,15 @@
         <v>7069</v>
       </c>
       <c r="G116" t="n">
-        <v>-663677.838923433</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="J116" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4697,26 +4231,15 @@
         <v>46395.6483</v>
       </c>
       <c r="G117" t="n">
-        <v>-617282.190623433</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="J117" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4738,24 +4261,15 @@
         <v>5535.1167</v>
       </c>
       <c r="G118" t="n">
-        <v>-622817.307323433</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4777,24 +4291,15 @@
         <v>66054.4255</v>
       </c>
       <c r="G119" t="n">
-        <v>-688871.732823433</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4816,24 +4321,15 @@
         <v>36236.692</v>
       </c>
       <c r="G120" t="n">
-        <v>-652635.040823433</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4855,24 +4351,15 @@
         <v>16838.5847</v>
       </c>
       <c r="G121" t="n">
-        <v>-669473.625523433</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4894,26 +4381,15 @@
         <v>3722.5816</v>
       </c>
       <c r="G122" t="n">
-        <v>-665751.0439234329</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="J122" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4935,26 +4411,15 @@
         <v>1484.7214</v>
       </c>
       <c r="G123" t="n">
-        <v>-665751.0439234329</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="J123" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4976,26 +4441,15 @@
         <v>1661</v>
       </c>
       <c r="G124" t="n">
-        <v>-665751.0439234329</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="J124" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5017,26 +4471,15 @@
         <v>8669</v>
       </c>
       <c r="G125" t="n">
-        <v>-665751.0439234329</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="J125" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5058,26 +4501,15 @@
         <v>1375</v>
       </c>
       <c r="G126" t="n">
-        <v>-667126.0439234329</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="J126" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5099,26 +4531,15 @@
         <v>21767.8577</v>
       </c>
       <c r="G127" t="n">
-        <v>-688893.901623433</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="J127" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5140,26 +4561,15 @@
         <v>2386.7435</v>
       </c>
       <c r="G128" t="n">
-        <v>-686507.158123433</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="J128" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5181,26 +4591,15 @@
         <v>53200</v>
       </c>
       <c r="G129" t="n">
-        <v>-633307.158123433</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>31.67</v>
-      </c>
-      <c r="J129" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5222,26 +4621,15 @@
         <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>-633307.158123433</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>31.77</v>
-      </c>
-      <c r="J130" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5263,26 +4651,15 @@
         <v>7800</v>
       </c>
       <c r="G131" t="n">
-        <v>-641107.158123433</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>31.77</v>
-      </c>
-      <c r="J131" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5304,26 +4681,15 @@
         <v>4080.224</v>
       </c>
       <c r="G132" t="n">
-        <v>-641107.158123433</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="J132" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5345,26 +4711,15 @@
         <v>8478.9776</v>
       </c>
       <c r="G133" t="n">
-        <v>-641107.158123433</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="J133" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
